--- a/Danh Sach Lop/Elementary.xlsx
+++ b/Danh Sach Lop/Elementary.xlsx
@@ -7,8 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Elementary1" sheetId="2" r:id="rId1"/>
-    <sheet name="Elementary2" sheetId="3" r:id="rId2"/>
+    <sheet name="E1-K1" sheetId="4" r:id="rId1"/>
+    <sheet name="E1-K2" sheetId="2" r:id="rId2"/>
+    <sheet name="E2-K1" sheetId="3" r:id="rId3"/>
+    <sheet name="E3-K1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -568,9 +570,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -763,12 +777,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="8">
-        <f>SUM(G4:J4)</f>
+        <f t="shared" ref="K4:K15" si="0">SUM(G4:J4)</f>
         <v>57</v>
       </c>
     </row>
@@ -882,7 +896,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="8">
-        <f>SUM(G5:J5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -914,7 +928,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="8">
-        <f>SUM(G6:J6)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -950,7 +964,7 @@
         <v>15</v>
       </c>
       <c r="K7" s="8">
-        <f>SUM(G7:J7)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
@@ -986,7 +1000,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="8">
-        <f>SUM(G8:J8)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
@@ -1022,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="K9" s="8">
-        <f>SUM(G9:J9)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
@@ -1058,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="8">
-        <f>SUM(G10:J10)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -1092,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="K11" s="8">
-        <f>SUM(G11:J11)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
@@ -1116,7 +1130,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="8">
-        <f>SUM(G12:J12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1140,7 +1154,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="8">
-        <f>SUM(G13:J13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1172,7 +1186,7 @@
         <v>20</v>
       </c>
       <c r="K14" s="8">
-        <f>SUM(G14:J14)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
@@ -1208,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="8">
-        <f>SUM(G15:J15)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
@@ -1221,4 +1235,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Elementary.xlsx
+++ b/Danh Sach Lop/Elementary.xlsx
@@ -10,14 +10,14 @@
     <sheet name="E1-K1" sheetId="4" r:id="rId1"/>
     <sheet name="E1-K2" sheetId="2" r:id="rId2"/>
     <sheet name="E2-K1" sheetId="3" r:id="rId3"/>
-    <sheet name="E3-K1" sheetId="5" r:id="rId4"/>
+    <sheet name="E3-K1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>x</t>
   </si>
@@ -157,14 +157,47 @@
     <t>Điểm thi kết thúc</t>
   </si>
   <si>
-    <t>Khóa Elementary 2 - K1 (15/7/2016 - 17/10/2017)</t>
+    <t>0905005081</t>
+  </si>
+  <si>
+    <t>01655680778</t>
+  </si>
+  <si>
+    <t>Ngân</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t>Toản</t>
+  </si>
+  <si>
+    <t>01226422994</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Bích Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Trinh</t>
+  </si>
+  <si>
+    <t>Phan Thị Tâm</t>
+  </si>
+  <si>
+    <t>Khóa Elementary 1 - K1 (24/02/2016-30/05/2016)</t>
+  </si>
+  <si>
+    <t>Khóa Elementary 3 - K1 (23/10/2016 - 30/01/2017)</t>
+  </si>
+  <si>
+    <t>Khóa Elementary 2 - K1 (15/7/2016 - 17/10/2016)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +227,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -237,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,6 +311,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,13 +636,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1981</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1999</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1999</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1995</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1994</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1996</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -585,7 +827,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,26 +1032,29 @@
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -860,7 +1105,9 @@
         <v>38</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="G4" s="9">
         <v>15</v>
       </c>
@@ -890,7 +1137,9 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -914,7 +1163,9 @@
         <v>35</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="G6" s="9">
         <v>15</v>
       </c>
@@ -1172,7 +1423,9 @@
       <c r="E14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="G14" s="9">
         <v>18</v>
       </c>
@@ -1239,12 +1492,331 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1995</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:K13" si="0">SUM(G4:J4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1997</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1998</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1993</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1993</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1993</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1993</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1998</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1992</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Danh Sach Lop/Elementary.xlsx
+++ b/Danh Sach Lop/Elementary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="E1-K1" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>x</t>
   </si>
@@ -291,10 +291,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -306,9 +302,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -332,6 +325,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="4.9989318521683403E-2"/>
+  </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,30 +657,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="7"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -685,136 +688,136 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1981</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>1999</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>1999</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>1995</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>1994</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <v>1996</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -824,10 +827,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,162 +840,280 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5"/>
+      <c r="G2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="G3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>1996</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:K13" si="0">SUM(G4:J4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>1995</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="E5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>1995</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>1996</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1014,6 +1135,9 @@
       <c r="A22" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1021,10 +1145,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,438 +1170,438 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>1995</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <v>15</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>19</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>10</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>13</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K15" si="0">SUM(G4:J4)</f>
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>1997</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8">
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>1998</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>15</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>21</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>20</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>18</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>1993</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="E7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <v>19</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>18</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>15</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>15</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>1993</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
         <v>24</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>24</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>15</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>13</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>1993</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>16</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>20</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>10</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>13</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>1993</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
         <v>21</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>21</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>15</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>13</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="E11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
         <v>9</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>11</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>10</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>13</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8">
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="8">
+      <c r="E13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>1998</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="D14" s="9"/>
+      <c r="E14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
         <v>18</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>23</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>15</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>20</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>1992</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="E15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
         <v>19</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>16</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>15</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <v>13</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -1494,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,298 +1641,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>1995</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K13" si="0">SUM(G4:J4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>1997</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8">
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>1998</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>1993</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8">
+      <c r="E7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>1993</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8">
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>1993</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="8">
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>1993</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8">
+      <c r="E10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8">
+      <c r="E11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>1998</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8">
+      <c r="D12" s="9"/>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>1992</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="8">
+      <c r="E13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Danh Sach Lop/Elementary.xlsx
+++ b/Danh Sach Lop/Elementary.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="E1-K1" sheetId="4" r:id="rId1"/>
     <sheet name="E1-K2" sheetId="2" r:id="rId2"/>
-    <sheet name="E2-K1" sheetId="3" r:id="rId3"/>
-    <sheet name="E3-K1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="E2-K1" sheetId="3" r:id="rId4"/>
+    <sheet name="E3-K1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
   <si>
     <t>x</t>
   </si>
@@ -191,6 +192,9 @@
   </si>
   <si>
     <t>Khóa Elementary 2 - K1 (15/7/2016 - 17/10/2016)</t>
+  </si>
+  <si>
+    <t>01238406383</t>
   </si>
 </sst>
 </file>
@@ -282,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,13 +329,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,8 +844,8 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -854,13 +859,13 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5"/>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -875,7 +880,7 @@
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -914,13 +919,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="G4" s="7">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7">
+        <v>10</v>
+      </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K13" si="0">SUM(G4:J4)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -940,13 +953,21 @@
         <v>0</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="G5" s="7">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7">
+        <v>15</v>
+      </c>
       <c r="K5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -966,13 +987,21 @@
         <v>0</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="G6" s="7">
+        <v>18</v>
+      </c>
+      <c r="H6" s="7">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7">
+        <v>15</v>
+      </c>
       <c r="K6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,13 +1019,21 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>10</v>
+      </c>
       <c r="K7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1012,13 +1049,21 @@
         <v>0</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10</v>
+      </c>
       <c r="K8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,19 +1089,35 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1998</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="G10" s="7">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7">
+        <v>20</v>
+      </c>
+      <c r="J10" s="7">
+        <v>15</v>
+      </c>
       <c r="K10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1145,13 +1206,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>55</v>
+      </c>
+      <c r="C1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <f>B2*C1/B1</f>
+        <v>11.818181818181818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,13 +1281,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1617,12 +1723,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1740,7 @@
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1646,13 +1755,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1703,14 +1812,22 @@
         <v>38</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K13" si="0">SUM(G4:J4)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,14 +1842,22 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1802,13 +1927,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="7">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>22</v>
+      </c>
+      <c r="I8" s="7">
+        <v>20</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1828,13 +1959,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7">
+        <v>20</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1854,13 +1991,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="G10" s="7">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7">
+        <v>22</v>
+      </c>
+      <c r="I10" s="7">
+        <v>25</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1897,18 +2040,26 @@
       <c r="C12" s="7">
         <v>1998</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="G12" s="7">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7">
+        <v>20</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/Danh Sach Lop/Elementary.xlsx
+++ b/Danh Sach Lop/Elementary.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
   <si>
     <t>x</t>
   </si>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,6 +331,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,7 +838,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,8 +847,8 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -859,13 +862,13 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5"/>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -883,7 +886,7 @@
       <c r="E3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -918,7 +921,9 @@
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G4" s="7">
         <v>13</v>
       </c>
@@ -952,7 +957,7 @@
       <c r="E5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="7">
         <v>17</v>
       </c>
@@ -986,7 +991,7 @@
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="7">
         <v>18</v>
       </c>
@@ -1018,7 +1023,9 @@
         <v>3</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G7" s="7">
         <v>5</v>
       </c>
@@ -1048,7 +1055,9 @@
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G8" s="7">
         <v>10</v>
       </c>
@@ -1078,7 +1087,7 @@
       <c r="E9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1102,7 +1111,9 @@
         <v>35</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G10" s="7">
         <v>14</v>
       </c>
@@ -1126,7 +1137,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1142,7 +1153,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1158,7 +1169,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1170,30 +1181,39 @@
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1281,13 +1301,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1755,13 +1775,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
